--- a/.idems_app/deployments/local/sheets/demo.xlsx
+++ b/.idems_app/deployments/local/sheets/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\IDEMS\parenting-app-ui\.idems_app\deployments\local\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832E2A82-B172-4DBB-9BD6-46D455D96B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C3F663-7556-4E63-AA7A-DE3297A793D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1815" yWindow="1290" windowWidth="16965" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3600" yWindow="5370" windowWidth="16965" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="==content_list==" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <t>text_2</t>
   </si>
   <si>
-    <t>Updated text 11</t>
+    <t>Additional text 2</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G966"/>
+  <dimension ref="A1:G965"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -640,15 +640,24 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -9262,15 +9271,6 @@
       <c r="E965" s="7"/>
       <c r="F965" s="7"/>
       <c r="G965" s="7"/>
-    </row>
-    <row r="966" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A966" s="7"/>
-      <c r="B966" s="7"/>
-      <c r="C966" s="7"/>
-      <c r="D966" s="7"/>
-      <c r="E966" s="7"/>
-      <c r="F966" s="7"/>
-      <c r="G966" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
